--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Documents\GitHub\Prusa2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90F4245-D64A-4CCC-8AB2-9E241EE0EE75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>Peça</t>
   </si>
@@ -86,9 +87,6 @@
     <t>falta fazer</t>
   </si>
   <si>
-    <t>fillet</t>
-  </si>
-  <si>
     <t>stepper motor 17HS4401</t>
   </si>
   <si>
@@ -170,25 +168,19 @@
     <t>pode ser necessário alterar o comprimento</t>
   </si>
   <si>
-    <t>decidir design</t>
-  </si>
-  <si>
     <t>comprimento?</t>
   </si>
   <si>
-    <t>confirmar dimensões</t>
-  </si>
-  <si>
-    <t>desconhece-se o diametro do parafuso para tensionar a correia</t>
-  </si>
-  <si>
     <t>roldana para motor</t>
   </si>
   <si>
-    <t>falta espaço para interruptor endstop</t>
-  </si>
-  <si>
     <t>roldana para cremalheira</t>
+  </si>
+  <si>
+    <t>falta z stopper</t>
+  </si>
+  <si>
+    <t>falta furos para parafuso e porca</t>
   </si>
 </sst>
 </file>
@@ -761,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,13 +767,13 @@
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -800,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -823,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>
@@ -835,7 +827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -862,9 +854,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -877,10 +869,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -889,9 +881,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -903,15 +895,15 @@
         <v>11</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
@@ -926,9 +918,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -943,9 +935,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
@@ -960,9 +952,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="14">
         <v>8</v>
@@ -977,9 +969,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
@@ -991,15 +983,12 @@
         <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1016,16 +1005,10 @@
       <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1042,14 +1025,11 @@
       <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1061,9 +1041,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -1077,13 +1057,16 @@
       <c r="F14" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1095,12 +1078,12 @@
         <v>11</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -1115,9 +1098,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -1132,9 +1115,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1149,9 +1132,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -1166,9 +1149,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
@@ -1183,12 +1166,12 @@
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -1197,15 +1180,15 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1220,9 +1203,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1237,9 +1220,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -1254,9 +1237,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -1271,9 +1254,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -1288,9 +1271,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -1304,10 +1287,13 @@
       <c r="F27" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -1322,9 +1308,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
@@ -1336,18 +1322,12 @@
         <v>11</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1356,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>17</v>

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90F4245-D64A-4CCC-8AB2-9E241EE0EE75}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEF9D2-78AC-40D1-857A-5F270C57C013}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
   <si>
     <t>Peça</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>falta furos para parafuso e porca</t>
+  </si>
+  <si>
+    <t>parte única, não mexe, apenas para referência de dimensões e assembly final</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1305,13 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DEF9D2-78AC-40D1-857A-5F270C57C013}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A5A27-548B-4EBC-A215-EF8A5046ED54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
   <si>
     <t>Peça</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>parte única, não mexe, apenas para referência de dimensões e assembly final</t>
+  </si>
+  <si>
+    <t>carro para cama quente</t>
+  </si>
+  <si>
+    <t>parafuso CHC M4x38</t>
+  </si>
+  <si>
+    <t>parafuso CHC M3x</t>
+  </si>
+  <si>
+    <t>falta definir comprimento</t>
   </si>
 </sst>
 </file>
@@ -756,16 +768,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1166,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>47</v>
@@ -1279,7 +1291,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1288,7 +1300,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>51</v>
@@ -1348,6 +1360,54 @@
         <v>17</v>
       </c>
       <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A5A27-548B-4EBC-A215-EF8A5046ED54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C652E6-F810-405B-B82F-0EB1AD496CC1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>Peça</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>falta definir comprimento</t>
+  </si>
+  <si>
+    <t>3 peças, falta botão stopper</t>
+  </si>
+  <si>
+    <t>parafuso CHC M5x47</t>
+  </si>
+  <si>
+    <t>para carro da cama quente</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -404,6 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1385,10 @@
         <v>11</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1408,6 +1421,43 @@
       <c r="G33" s="1" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C652E6-F810-405B-B82F-0EB1AD496CC1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B4145-DF3C-4727-B431-E391F8AD72FD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -404,6 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,7 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,14 +799,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="J1" t="s">
         <v>2</v>
       </c>
@@ -864,7 +864,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
@@ -937,7 +937,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>17</v>
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>17</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>13</v>
@@ -1080,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>51</v>
@@ -1120,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>13</v>
@@ -1256,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>17</v>
@@ -1350,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1385,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>57</v>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="22"/>
+      <c r="F37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B4145-DF3C-4727-B431-E391F8AD72FD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58DF89-C90A-4374-9C76-EB928FF549A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
   <si>
     <t>Peça</t>
   </si>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,13 +891,10 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
@@ -917,7 +914,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>17</v>
@@ -1025,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>50</v>
@@ -1042,13 +1039,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J12" s="15"/>
     </row>
@@ -1242,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F58DF89-C90A-4374-9C76-EB928FF549A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EDC89-4C7E-40AD-A5F2-025884850043}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
   <si>
     <t>Peça</t>
   </si>
@@ -189,9 +189,6 @@
     <t>carro para cama quente</t>
   </si>
   <si>
-    <t>parafuso CHC M4x38</t>
-  </si>
-  <si>
     <t>parafuso CHC M3x</t>
   </si>
   <si>
@@ -201,10 +198,25 @@
     <t>3 peças, falta botão stopper</t>
   </si>
   <si>
-    <t>parafuso CHC M5x47</t>
-  </si>
-  <si>
     <t>para carro da cama quente</t>
+  </si>
+  <si>
+    <t>parafuso CHC M4x40</t>
+  </si>
+  <si>
+    <t>parafuso CHC M3x12</t>
+  </si>
+  <si>
+    <t>parafuso CHC M5x50</t>
+  </si>
+  <si>
+    <t>parafuso CHC M5x35</t>
+  </si>
+  <si>
+    <t>parafuso CHC M4x20</t>
+  </si>
+  <si>
+    <t>parafuso M3xl (l&lt;10)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -778,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,15 +1394,15 @@
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1401,24 +1413,24 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" s="2">
-        <v>8</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2">
         <v>4</v>
@@ -1430,12 +1442,12 @@
         <v>11</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2">
         <v>3</v>
@@ -1447,11 +1459,51 @@
         <v>11</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Materiais.xlsx
+++ b/Materiais.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\GitHub\Prusa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Rolo\Desktop\GitHub\Prusa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5EDC89-4C7E-40AD-A5F2-025884850043}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1F710C-387A-4FCA-BB81-52FF203ECB32}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4580" xr2:uid="{AE9EF232-B713-46EB-8C7C-A8B1241BBC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>Peça</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>parafuso M3xl (l&lt;10)</t>
+  </si>
+  <si>
+    <t>parafuso CHF M3(8&gt;L&lt;11)</t>
+  </si>
+  <si>
+    <t>parafuso CHFM4 (24&lt;l&lt;28)</t>
+  </si>
+  <si>
+    <t>parafuso M5 (l&gt;34)</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -790,27 +799,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4442A1-F99D-40F7-B3FB-0F573F96FE29}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="9.1796875" style="3"/>
+    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -829,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -864,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -891,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -915,7 +924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -935,7 +944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -952,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -969,7 +978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -986,7 +995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1067,7 @@
       </c>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1180,7 +1189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>36</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1251,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
@@ -1377,7 +1386,7 @@
       </c>
       <c r="G30" s="18"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>60</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -1491,7 +1500,7 @@
       </c>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -1503,6 +1512,30 @@
       </c>
       <c r="E38" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
